--- a/data/trans_dic/PCS12_SP_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/PCS12_SP_R2-Habitat-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -926,7 +926,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1066,7 +1066,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/PCS12_SP_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/PCS12_SP_R2-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población en el primer cuartil de la puntuación del componente de salud física (SF12)</t>
+          <t>Población por debajo de la mediana de la puntuación del componente de salud física (SF12)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,38%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,47%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,81%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,6%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>58,08%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,42%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>55,95%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,49%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,65%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,41%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>53,35%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,54%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,81</t>
+          <t>33,75; 52,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,56</t>
+          <t>35,73; 54,13</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,68</t>
+          <t>41,62; 60,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,64</t>
+          <t>46,03; 67,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,49</t>
+          <t>48,82; 66,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,92</t>
+          <t>38,48; 57,64</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,65</t>
+          <t>46,66; 64,53</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>48,05; 63,46</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,82</t>
+          <t>44,67; 58,25</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>39,44; 54,03</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,84</t>
+          <t>46,63; 59,89</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>49,79; 62,53</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,59%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,44%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,7%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,84%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,17%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,21%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,55%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>53,43%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,86%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,82%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,13%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,7%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>38,58; 46,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>41,14; 49,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>37,85; 46,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>45,35; 54,36</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>52,99; 61,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>49,65; 58,12</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>46,41; 55,12</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>49,8; 56,91</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>46,69; 52,87</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>46,92; 52,72</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>43,19; 49,09</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>48,79; 54,42</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,63%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,09%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,86%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,25%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,26%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>55,28%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,83%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,64%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,98%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,72%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,89%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,99%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>36,18; 42,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>40,96; 47,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>33,85; 40,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>35,81; 51,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>56,8; 63,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>52,29; 58,57</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>43,58; 49,84</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>46,74; 52,65</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>47,77; 52,29</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>47,2; 51,94</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>39,87; 44,29</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>42,34; 49,36</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,74%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,87%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,45%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,07%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,81%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,64%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,02%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,1%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,79%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,83%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,8%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,64%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>42,94; 50,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>37,03; 44,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>36,7; 44,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>40,96; 49,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>53,13; 60,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>48,72; 56,46</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>45,3; 52,74</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>49,98; 70,73</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>48,94; 54,45</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>44,16; 49,54</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>42,31; 47,52</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>47,06; 63,28</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,47%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,41%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,9%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,14%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,05%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>55,21%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,59%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>55,86%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,54%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,57%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,48%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,16%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>39,52; 45,69</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>42,13; 48,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>33,89; 40,24</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>48,92; 55,76</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>50,95; 57,08</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>52,07; 58,36</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>42,48; 48,7</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>52,34; 58,74</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>46,09; 50,53</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>48,19; 52,87</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>39,26; 43,65</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>51,79; 56,47</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,57%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,99%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,95%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,72%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,05%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,29%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,83%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,06%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,93%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,24%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,48%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,61%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>40,72; 44,43</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>42,17; 45,75</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>37,42; 40,8</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>44,78; 49,73</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>55,26; 58,74</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>52,73; 55,95</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>46,06; 49,44</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>51,92; 58,75</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>48,72; 51,26</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>48,15; 50,48</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>42,2; 44,66</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>49,12; 53,35</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/PCS12_SP_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/PCS12_SP_R2-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>43,38%</t>
+          <t>42,72%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>44,47%</t>
+          <t>45,28%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>50,81%</t>
+          <t>43,27%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>56,6%</t>
+          <t>50,86%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>58,08%</t>
+          <t>57,32%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>48,42%</t>
+          <t>53,28%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>55,95%</t>
+          <t>51,46%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>56,49%</t>
+          <t>54,4%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>50,65%</t>
+          <t>49,99%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>46,41%</t>
+          <t>49,26%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>53,35%</t>
+          <t>47,36%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>56,54%</t>
+          <t>52,68%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>33,75; 52,69</t>
+          <t>39,13; 46,58</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>35,73; 54,13</t>
+          <t>41,48; 49,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>41,62; 60,88</t>
+          <t>39,22; 47,04</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>46,03; 67,26</t>
+          <t>46,33; 55,3</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>48,82; 66,53</t>
+          <t>53,26; 61,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>38,48; 57,64</t>
+          <t>49,71; 57,19</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>46,66; 64,53</t>
+          <t>47,16; 55,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>48,05; 63,46</t>
+          <t>51,44; 57,34</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>44,67; 58,25</t>
+          <t>47,38; 52,83</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>39,44; 54,03</t>
+          <t>46,65; 51,74</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>46,63; 59,89</t>
+          <t>44,66; 50,04</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>49,79; 62,53</t>
+          <t>49,82; 55,22</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>42,59%</t>
+          <t>39,63%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>45,44%</t>
+          <t>44,09%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>41,7%</t>
+          <t>36,86%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>49,84%</t>
+          <t>49,96%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>57,17%</t>
+          <t>60,26%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>54,21%</t>
+          <t>55,28%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>50,55%</t>
+          <t>46,83%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>53,43%</t>
+          <t>50,37%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>49,86%</t>
+          <t>49,98%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>49,82%</t>
+          <t>49,72%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>46,13%</t>
+          <t>41,89%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>51,7%</t>
+          <t>50,14%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>38,58; 46,33</t>
+          <t>36,18; 42,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>41,14; 49,47</t>
+          <t>40,96; 47,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>37,85; 46,16</t>
+          <t>33,85; 40,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>45,35; 54,36</t>
+          <t>35,95; 75,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>52,99; 61,03</t>
+          <t>56,8; 63,17</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>49,65; 58,12</t>
+          <t>52,29; 58,57</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>46,41; 55,12</t>
+          <t>43,58; 49,84</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>49,8; 56,91</t>
+          <t>47,4; 53,31</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>46,69; 52,87</t>
+          <t>47,77; 52,29</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>46,92; 52,72</t>
+          <t>47,2; 51,94</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>43,19; 49,09</t>
+          <t>39,87; 44,29</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>48,79; 54,42</t>
+          <t>42,71; 67,58</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>39,63%</t>
+          <t>46,74%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>44,09%</t>
+          <t>40,87%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>36,86%</t>
+          <t>40,45%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>40,25%</t>
+          <t>44,79%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>60,26%</t>
+          <t>56,81%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>55,28%</t>
+          <t>52,64%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
+          <t>49,02%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>60,99%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>51,79%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
           <t>46,83%</t>
         </is>
       </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>49,64%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>49,98%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>49,72%</t>
-        </is>
-      </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>41,89%</t>
+          <t>44,8%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>44,99%</t>
+          <t>54,02%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>36,18; 42,77</t>
+          <t>42,94; 50,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>40,96; 47,39</t>
+          <t>37,03; 44,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>33,85; 40,09</t>
+          <t>36,7; 44,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>35,81; 51,64</t>
+          <t>40,49; 48,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>56,8; 63,17</t>
+          <t>53,13; 60,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>52,29; 58,57</t>
+          <t>48,72; 56,46</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>43,58; 49,84</t>
+          <t>45,3; 52,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>46,74; 52,65</t>
+          <t>48,59; 77,92</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>47,77; 52,29</t>
+          <t>48,94; 54,45</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>47,2; 51,94</t>
+          <t>44,16; 49,54</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>39,87; 44,29</t>
+          <t>42,31; 47,52</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>42,34; 49,36</t>
+          <t>46,42; 70,53</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>46,74%</t>
+          <t>42,47%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>40,87%</t>
+          <t>45,41%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>40,45%</t>
+          <t>36,9%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>45,07%</t>
+          <t>52,68%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>56,81%</t>
+          <t>54,05%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>52,64%</t>
+          <t>55,21%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>49,02%</t>
+          <t>45,59%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>57,1%</t>
+          <t>53,37%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>51,79%</t>
+          <t>48,54%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>46,83%</t>
+          <t>50,57%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>44,8%</t>
+          <t>41,48%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>51,64%</t>
+          <t>53,05%</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>42,94; 50,43</t>
+          <t>39,52; 45,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>37,03; 44,88</t>
+          <t>42,13; 48,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>36,7; 44,41</t>
+          <t>33,89; 40,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>40,96; 49,11</t>
+          <t>49,46; 56,47</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>53,13; 60,22</t>
+          <t>50,95; 57,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>48,72; 56,46</t>
+          <t>52,07; 58,36</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>45,3; 52,74</t>
+          <t>42,48; 48,7</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>49,98; 70,73</t>
+          <t>43,49; 58,06</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>48,94; 54,45</t>
+          <t>46,09; 50,53</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>44,16; 49,54</t>
+          <t>48,19; 52,87</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>42,31; 47,52</t>
+          <t>39,26; 43,65</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>47,06; 63,28</t>
+          <t>46,37; 55,91</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>42,47%</t>
+          <t>42,57%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>45,41%</t>
+          <t>43,99%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>36,9%</t>
+          <t>38,95%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>52,14%</t>
+          <t>49,8%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>54,05%</t>
+          <t>57,05%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>55,21%</t>
+          <t>54,29%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>45,59%</t>
+          <t>47,83%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>55,86%</t>
+          <t>54,72%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>48,54%</t>
+          <t>49,93%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>50,57%</t>
+          <t>49,24%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>41,48%</t>
+          <t>43,48%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>54,16%</t>
+          <t>52,33%</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>39,52; 45,69</t>
+          <t>40,72; 44,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>42,13; 48,88</t>
+          <t>42,17; 45,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>33,89; 40,24</t>
+          <t>37,42; 40,8</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>48,92; 55,76</t>
+          <t>45,31; 60,17</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>50,95; 57,08</t>
+          <t>55,26; 58,74</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>52,07; 58,36</t>
+          <t>52,73; 55,95</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>42,48; 48,7</t>
+          <t>46,06; 49,44</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>52,34; 58,74</t>
+          <t>50,82; 62,72</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>46,09; 50,53</t>
+          <t>48,72; 51,26</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>48,19; 52,87</t>
+          <t>48,15; 50,48</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>39,26; 43,65</t>
+          <t>42,2; 44,66</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>51,79; 56,47</t>
+          <t>49,18; 58,74</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>42,57%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>43,99%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>38,95%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>46,72%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>57,05%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>54,29%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>47,83%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>54,06%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>49,93%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>49,24%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>43,48%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>50,61%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>40,72; 44,43</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>42,17; 45,75</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>37,42; 40,8</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>44,78; 49,73</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>55,26; 58,74</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>52,73; 55,95</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>46,06; 49,44</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>51,92; 58,75</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>48,72; 51,26</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>48,15; 50,48</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>42,2; 44,66</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>49,12; 53,35</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/PCS12_SP_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/PCS12_SP_R2-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>39,13; 46,58</t>
+          <t>39,19; 46,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>41,48; 49,02</t>
+          <t>41,23; 49,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>39,22; 47,04</t>
+          <t>39,33; 47,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>46,33; 55,3</t>
+          <t>45,89; 55,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>53,26; 61,17</t>
+          <t>53,54; 61,08</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>49,71; 57,19</t>
+          <t>49,69; 57,08</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>47,16; 55,0</t>
+          <t>47,43; 55,12</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>51,44; 57,34</t>
+          <t>51,43; 57,57</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>47,38; 52,83</t>
+          <t>47,11; 52,53</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>46,65; 51,74</t>
+          <t>46,53; 52,19</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>44,66; 50,04</t>
+          <t>44,48; 50,02</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>49,82; 55,22</t>
+          <t>49,86; 55,23</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>36,18; 42,77</t>
+          <t>36,49; 42,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>40,96; 47,39</t>
+          <t>40,83; 47,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>33,85; 40,09</t>
+          <t>33,83; 39,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>35,95; 75,0</t>
+          <t>35,55; 73,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>56,8; 63,17</t>
+          <t>57,3; 63,54</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>52,29; 58,57</t>
+          <t>52,22; 58,64</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>43,58; 49,84</t>
+          <t>43,9; 50,24</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>47,4; 53,31</t>
+          <t>47,49; 53,28</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>47,77; 52,29</t>
+          <t>47,73; 52,33</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>47,2; 51,94</t>
+          <t>47,3; 51,91</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>39,87; 44,29</t>
+          <t>39,63; 44,17</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>42,71; 67,58</t>
+          <t>43,07; 65,62</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>42,94; 50,43</t>
+          <t>43,15; 50,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>37,03; 44,88</t>
+          <t>37,23; 44,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>36,7; 44,41</t>
+          <t>36,72; 44,19</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>40,49; 48,83</t>
+          <t>40,56; 48,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>53,13; 60,22</t>
+          <t>53,36; 60,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>48,72; 56,46</t>
+          <t>48,95; 56,45</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>45,3; 52,74</t>
+          <t>45,55; 52,6</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>48,59; 77,92</t>
+          <t>48,45; 79,4</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>48,94; 54,45</t>
+          <t>49,2; 54,67</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>44,16; 49,54</t>
+          <t>44,05; 49,37</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>42,31; 47,52</t>
+          <t>42,28; 47,31</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>46,42; 70,53</t>
+          <t>45,92; 70,09</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>39,52; 45,69</t>
+          <t>39,38; 45,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>42,13; 48,88</t>
+          <t>41,89; 48,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>33,89; 40,24</t>
+          <t>33,76; 40,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>49,46; 56,47</t>
+          <t>48,86; 55,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>50,95; 57,08</t>
+          <t>50,74; 57,2</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>52,07; 58,36</t>
+          <t>52,12; 58,24</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>42,48; 48,7</t>
+          <t>42,28; 48,59</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>43,49; 58,06</t>
+          <t>43,47; 57,84</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>46,09; 50,53</t>
+          <t>46,18; 50,67</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>48,19; 52,87</t>
+          <t>48,05; 52,75</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>39,26; 43,65</t>
+          <t>39,38; 43,8</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>46,37; 55,91</t>
+          <t>46,65; 56,07</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>40,72; 44,43</t>
+          <t>40,98; 44,5</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>42,17; 45,75</t>
+          <t>42,18; 45,89</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>37,42; 40,8</t>
+          <t>37,42; 40,7</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>45,31; 60,17</t>
+          <t>45,22; 61,45</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>55,26; 58,74</t>
+          <t>55,36; 58,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>52,73; 55,95</t>
+          <t>52,61; 56,21</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>46,06; 49,44</t>
+          <t>45,97; 49,62</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>50,82; 62,72</t>
+          <t>50,93; 63,17</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>48,72; 51,26</t>
+          <t>48,6; 51,16</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>48,15; 50,48</t>
+          <t>48,01; 50,45</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>42,2; 44,66</t>
+          <t>42,23; 44,64</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>49,18; 58,74</t>
+          <t>49,01; 58,43</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población por debajo de la mediana de la puntuación del componente de salud física (SF12)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>411</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>398</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>344</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>326</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>744</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>693</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>644</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>608</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1155</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>296491</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>318545</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>292006</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>320510</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>394544</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>371374</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>346253</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>364395</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>691035</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>689918</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>638260</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>684904</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>272014; 320175</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>290021; 346088</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>265392; 318431</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>289181; 347332</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>368559; 420439</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>346334; 397869</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>319101; 370863</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>344521; 385655</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>651276; 726156</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>651593; 730897</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>599455; 674033</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>648223; 717960</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>367</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>413</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>356</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>407</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>542</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>518</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>437</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>841</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>909</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>793</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>1248</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>381168</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>448861</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>376822</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>593664</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>583514</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>570563</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>488347</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>479906</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>964683</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1019424</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>865169</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1073570</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>350935; 412347</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>415587; 481524</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>345844; 408778</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>422403; 869290</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>554915; 615301</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>539009; 605222</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>457884; 523941</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>452491; 507694</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>921325; 1010021</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>969750; 1064219</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>818496; 912252</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>922145; 1405031</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>349</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>395</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>345</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>610</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>695</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>641</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>629</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>959</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>317133</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>309642</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>307217</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>314566</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>388475</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>409071</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>384824</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>568177</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>705608</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>718713</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>692041</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>882743</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>292792; 342563</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>282089; 339895</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>278881; 335634</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>284846; 342758</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>364877; 416722</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>380430; 438748</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>357585; 412940</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>451342; 739759</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>670271; 744809</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>676145; 757730</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>652990; 730656</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>750391; 1145161</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>427</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>401</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>346</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>569</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>534</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>550</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>413</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>976</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>961</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>951</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1545</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>400150</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>430384</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>345969</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>486171</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>561413</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>580746</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>475837</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>581314</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>961563</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1011130</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>821806</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1067485</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>371004; 426945</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>397007; 460902</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>316544; 375050</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>450889; 516546</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>527013; 594121</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>548258; 612590</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>441266; 507162</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>473485; 630036</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>914720; 1003645</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>960741; 1054730</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>780164; 867857</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>938718; 1128301</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>1389</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1387</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1268</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>1736</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>1869</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>1780</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>1521</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>3171</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>3258</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>3167</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>2789</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>4907</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>1394942</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1507432</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1322013</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1714911</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1927947</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>1931754</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>1695262</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>1993792</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>3322889</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>3439186</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>3017275</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>3708703</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1342788; 1458215</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1445255; 1572564</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1270293; 1381491</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1557120; 2116180</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1870650; 1988583</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1871924; 2000271</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1629512; 1758713</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1855580; 2301535</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>3234788; 3405160</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>3353430; 3524304</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>2930007; 3097352</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>3473685; 4140835</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>